--- a/src/zh/openpyxl/cells/Data.xlsx
+++ b/src/zh/openpyxl/cells/Data.xlsx
@@ -5,12 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Types" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Hyperlinks" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">字符串</t>
   </si>
@@ -64,12 +63,6 @@
       <t xml:space="preserve">的一天</t>
     </r>
   </si>
-  <si>
-    <t xml:space="preserve">Bing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google</t>
-  </si>
 </sst>
 </file>
 
@@ -84,7 +77,7 @@
     <numFmt numFmtId="169" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="170" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -118,13 +111,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,7 +154,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -202,10 +188,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -380,7 +362,7 @@
   </sheetPr>
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -438,44 +420,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="8.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="25.87"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="Bing"/>
-    <hyperlink ref="B1" r:id="rId2" display="Google"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>